--- a/src/spz/templates/export/spanisch_1-8.xlsx
+++ b/src/spz/templates/export/spanisch_1-8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pingüino\Listas\Listas Simon\WS21-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C268694-ECD5-4D5D-B6DD-6E4DB919EA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C6C5934-81C3-44DA-9416-7BBB2E9BD295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -210,7 +210,7 @@
     <t>Level:</t>
   </si>
   <si>
-    <t>B2</t>
+    <t>A1.1</t>
   </si>
   <si>
     <t>ECTS:</t>
@@ -308,9 +308,6 @@
     <t>Spanish - DELE B2 Preparation Course</t>
   </si>
   <si>
-    <t>A1.1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -420,6 +417,9 @@
   </si>
   <si>
     <t>Marta Moriones</t>
+  </si>
+  <si>
+    <t>B2</t>
   </si>
   <si>
     <t>Manuela Rodríguez</t>
@@ -536,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -721,12 +721,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -949,6 +980,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1617,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -1668,22 +1708,22 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1859,7 +1899,7 @@
   <dimension ref="A1:WVW59"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1"/>
@@ -3819,12 +3859,12 @@
         <v>32</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="80" t="s">
+      <c r="D31" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
       <c r="H31" s="31"/>
       <c r="I31" s="25"/>
       <c r="J31" s="31"/>
@@ -3839,10 +3879,10 @@
         <v>35</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
       <c r="H32" s="31"/>
       <c r="I32" s="25"/>
       <c r="J32" s="31"/>
@@ -3857,10 +3897,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
       <c r="H33" s="31"/>
       <c r="I33" s="25"/>
       <c r="J33" s="31"/>
@@ -3875,10 +3915,10 @@
         <v>38</v>
       </c>
       <c r="C34" s="23"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
       <c r="H34" s="31"/>
       <c r="I34" s="25"/>
       <c r="J34" s="31"/>
@@ -3894,10 +3934,10 @@
         <v>Spanish - Intercultural Communication</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
       <c r="H35" s="31"/>
       <c r="I35" s="25"/>
       <c r="J35" s="31"/>
@@ -3912,10 +3952,10 @@
         <v>41</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
       <c r="H36" s="31"/>
       <c r="I36" s="25"/>
       <c r="J36" s="31"/>
@@ -3930,10 +3970,10 @@
         <v>44408</v>
       </c>
       <c r="C37" s="23"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
       <c r="H37" s="22"/>
       <c r="I37" s="25"/>
       <c r="J37" s="22"/>
@@ -4043,11 +4083,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="81" t="str">
+      <c r="A1" s="84" t="str">
         <f>Notenliste!B34</f>
         <v>Spanisch Intercultural</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="84"/>
       <c r="C1" s="8" t="s">
         <v>43</v>
       </c>
@@ -4204,45 +4244,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="61" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="85" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>Spanisch Intercultural / Spanish - Intercultural Communication</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
     </row>
     <row r="2" spans="1:14" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="83" t="str">
+      <c r="A2" s="86" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84" t="str">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87" t="str">
         <f>"Semster: "&amp;Notenliste!B36</f>
         <v>Semster: SS 2021</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
     </row>
     <row r="3" spans="1:14" s="62" customFormat="1" ht="60" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -5736,86 +5776,86 @@
       <c r="N29" s="60"/>
     </row>
     <row r="30" spans="1:14" s="61" customFormat="1">
-      <c r="A30" s="85" t="s">
+      <c r="A30" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
     </row>
     <row r="31" spans="1:14" s="61" customFormat="1">
-      <c r="A31" s="85"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="85"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
     </row>
     <row r="32" spans="1:14" s="61" customFormat="1">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
     </row>
     <row r="33" spans="1:15" s="61" customFormat="1">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
+      <c r="A34" s="88"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
       <c r="O34" s="61"/>
     </row>
   </sheetData>
@@ -5848,9 +5888,7 @@
   </sheetPr>
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection sqref="A1:X1"/>
-    </sheetView>
+    <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
@@ -5870,105 +5908,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="88" t="str">
+      <c r="A1" s="91" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>Spanisch Intercultural / Spanish - Intercultural Communication</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
     </row>
     <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1">
-      <c r="A3" s="89" t="str">
+      <c r="A3" s="92" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
     </row>
     <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="96" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="44"/>
@@ -5987,22 +6025,22 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="46"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="86" t="s">
+      <c r="W4" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="86" t="s">
+      <c r="X4" s="89" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="16" customFormat="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="94"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="97"/>
       <c r="F5" s="47"/>
       <c r="G5" s="45">
         <v>1</v>
@@ -6047,9 +6085,9 @@
         <v>14</v>
       </c>
       <c r="U5" s="48"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="17">
@@ -7614,8 +7652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7655,61 +7693,61 @@
         <v>65</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="F2" s="71" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="D3" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="F3" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="H3" s="72" t="s">
         <v>71</v>
-      </c>
-      <c r="H3" s="72" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="D4" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="F4" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="H4" s="72" t="s">
         <v>76</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="71" t="s">
+      <c r="F5" s="71" t="s">
         <v>79</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>80</v>
       </c>
       <c r="H5" s="73"/>
     </row>
@@ -7718,58 +7756,58 @@
         <v>38</v>
       </c>
       <c r="B6" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="F6" s="71" t="s">
         <v>82</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>83</v>
       </c>
       <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="D7" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="F7" s="71" t="s">
         <v>86</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>87</v>
       </c>
       <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="D8" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="F8" s="71" t="s">
         <v>90</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>91</v>
       </c>
       <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="D9" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="F9" s="71" t="s">
         <v>94</v>
-      </c>
-      <c r="F9" s="71" t="s">
-        <v>95</v>
       </c>
       <c r="H9" s="73"/>
     </row>
@@ -7777,25 +7815,25 @@
       <c r="A10" s="71"/>
       <c r="B10" s="71"/>
       <c r="D10" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="71" t="s">
         <v>96</v>
-      </c>
-      <c r="F10" s="71" t="s">
-        <v>97</v>
       </c>
       <c r="H10" s="73"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="D11" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="F11" s="71" t="s">
         <v>100</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>101</v>
       </c>
       <c r="H11" s="73"/>
     </row>
@@ -7803,10 +7841,10 @@
       <c r="A12" s="71"/>
       <c r="B12" s="71"/>
       <c r="D12" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="71" t="s">
         <v>102</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>103</v>
       </c>
       <c r="H12" s="73"/>
     </row>
@@ -7814,7 +7852,7 @@
       <c r="A13" s="71"/>
       <c r="B13" s="71"/>
       <c r="D13" s="71" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="F13" s="71" t="s">
         <v>104</v>
